--- a/ClosedXML.Tests/Resource/Examples/ImageHandling/ImageFormats.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ImageHandling/ImageFormats.xlsx
@@ -436,7 +436,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -456,7 +456,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML.Tests/Resource/Examples/ImageHandling/ImageFormats.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ImageHandling/ImageFormats.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -452,7 +452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/ImageHandling/ImageFormats.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ImageHandling/ImageFormats.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Jpg" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Png" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Jpg" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Png" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
